--- a/irmir-wykaz-gtfs.xlsx
+++ b/irmir-wykaz-gtfs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\irmir-supergtfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA5808B-0107-4E3D-A00A-C86FEE104939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170FA626-8DD3-44EB-8545-F9A465D8D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCF09D36-6799-46E4-854A-9DCBFC81A430}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>"PKP Intercity" S.A. </t>
   </si>
@@ -107,9 +107,6 @@
     <t>KW</t>
   </si>
   <si>
-    <t>SKM</t>
-  </si>
-  <si>
     <t>KMŁ</t>
   </si>
   <si>
@@ -117,13 +114,46 @@
   </si>
   <si>
     <t>Skrót</t>
+  </si>
+  <si>
+    <t>https://mkuran.pl/gtfs/pkpic.zip</t>
+  </si>
+  <si>
+    <t>https://mkuran.pl/gtfs/polregio.zip</t>
+  </si>
+  <si>
+    <t>https://kolejemalopolskie.com.pl/rozklady_jazdy/kml-ska-gtfs.zip</t>
+  </si>
+  <si>
+    <t>https://koleje-ks.pl/gtfs/2023-2024.zip</t>
+  </si>
+  <si>
+    <t>https://mkuran.pl/gtfs/kolejemazowieckie.zip</t>
+  </si>
+  <si>
+    <t>https://gtfs.i.kiedyprzyjedzie.pl/kd/google_transit.zip</t>
+  </si>
+  <si>
+    <t>https://www.skm.pkp.pl/gtfs-mi-kpd.zip</t>
+  </si>
+  <si>
+    <t>https://mkuran.pl/gtfs/wkd.zip</t>
+  </si>
+  <si>
+    <t>https://kolej-lka.pl/pliki/pn0e6eg45qcl4hd5/gtfs-2022-2023/zip/</t>
+  </si>
+  <si>
+    <t>https://gtfs.ztm.waw.pl/last</t>
+  </si>
+  <si>
+    <t>SKMW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +164,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -161,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -501,7 +539,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -528,6 +566,9 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -536,6 +577,9 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -544,6 +588,9 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -560,13 +607,19 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,6 +629,9 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -584,6 +640,9 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -592,13 +651,19 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,10 +679,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>